--- a/models/table_c3.xlsx
+++ b/models/table_c3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">l_wy_sci_world         </t>
   </si>
   <si>
-    <t xml:space="preserve">l_wy_state_mdl         </t>
+    <t xml:space="preserve">l_wy_model             </t>
   </si>
   <si>
     <t xml:space="preserve">sy_state_mdl    </t>
@@ -97,259 +97,262 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1721            </t>
+    <t xml:space="preserve">1728            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1600          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0356         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0095          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">323.98          </t>
+    <t xml:space="preserve">0.1580          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0281         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0113          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320.35          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0740***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0079)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2424***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0678)        </t>
+    <t xml:space="preserve">0.0704***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0080)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2397***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0680)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1660          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0549         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0058         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.69          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0749***       </t>
+    <t xml:space="preserve">0.1640          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0521         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0044         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.47          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0712***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0078)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2463***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0662)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0358***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0121)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0188*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0096)        </t>
+    <t xml:space="preserve">0.2436***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0665)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0359***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0122)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0186*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0095)        </t>
   </si>
   <si>
     <t xml:space="preserve">0.3774          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.6932          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6421          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">257.35          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0705***       </t>
+    <t xml:space="preserve">0.6966          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6440          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">258.27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0685***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0048)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1252**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0498)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0213*        </t>
+    <t xml:space="preserve">0.1235**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0495)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0214*        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0124)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0043          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0100)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4585***       </t>
+    <t xml:space="preserve">0.0042          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0099)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4599***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.1182)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4070          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5814          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5607          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">232.91          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0691***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0070)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0016         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1042)        </t>
+    <t xml:space="preserve">0.4072          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5955          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5623          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">233.92          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0674***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0069)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0046         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1048)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0225*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0123)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0055          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0101)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3788***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1172)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1425**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0718)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4046          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6134          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5793          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">231.46          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0660***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0061)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0371          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0697)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0226**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0113)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0023          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0109)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3945***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1183)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1085**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0492)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4076          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5988          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5665          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">234.40          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0665***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0067)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0119          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0862)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0226*        </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0122)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0057          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0101)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3781***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1169)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1407**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0707)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4045          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6034          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5776          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">230.53          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0679***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0061)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0398          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0695)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0225**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0025          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0109)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3935***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1183)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1076**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0487)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3867          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6634          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6208          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">214.02          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0750***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0411          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1245)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0257**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0119)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0084          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0095)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4356***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1109)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0915          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0911)        </t>
+    <t xml:space="preserve">(0.0117)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0037          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0106)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3828***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1177)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1317**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0610)        </t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1012,7 @@
         <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1032,7 +1035,7 @@
         <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1055,7 +1058,7 @@
         <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1078,7 +1081,7 @@
         <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1101,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1124,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1147,7 +1150,7 @@
         <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1170,7 +1173,7 @@
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1193,7 +1196,7 @@
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,7 +1311,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1331,7 +1334,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_c3.xlsx
+++ b/models/table_c3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -97,262 +97,247 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1728            </t>
+    <t xml:space="preserve">2132            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1580          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0281         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0113          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">320.35          </t>
+    <t xml:space="preserve">0.6232          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3526          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4873          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3482.8          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0704***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0080)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2397***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0680)        </t>
+    <t xml:space="preserve">0.1534***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0084)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0535***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1156)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1640          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0521         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0044         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.47          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0712***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0078)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2436***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0665)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0359***      </t>
+    <t xml:space="preserve">0.6234          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3453          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4846          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1160.8          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0530***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1160)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0127         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0171)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0048         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0075)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8362          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9603          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8857          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2684.1          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1607***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0019)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2198***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0542)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0228*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0117)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0116*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0063)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8040***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0507)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8531          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9304          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8753          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2442.1          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1536***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0023)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0878          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0535)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0065         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0122)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0186*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0095)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3774          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6966          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6440          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">258.27          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0685***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0048)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1235**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0495)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0214*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0124)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0042          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0099)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4599***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1182)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4072          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5955          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5623          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">233.92          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0674***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0069)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0046         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1048)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0225*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0123)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0055          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0101)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3788***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1172)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1425**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0718)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4046          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6134          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5793          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">231.46          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0660***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0061)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0371          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0697)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0226**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0023          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0109)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3945***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1183)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1085**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0492)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4076          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5988          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5665          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">234.40          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0665***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0067)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0119          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0862)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0226*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0117)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0037          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0106)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3828***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1177)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1317**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0610)        </t>
+    <t xml:space="preserve">-0.0165***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6133***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0586)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2473***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0420)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8593          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8468          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8396          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2567.6          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1718***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0031)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0051          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0520)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0149         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0114)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0091         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5280***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0597)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3907***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0679)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8691          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8485          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2566.5          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1606***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0021)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0241          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0547)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0073         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0118)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0140**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0065)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5371***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0591)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3613***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0600)        </t>
   </si>
 </sst>
 </file>
@@ -842,16 +827,16 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -865,16 +850,16 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -888,16 +873,16 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -911,16 +896,16 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -934,16 +919,16 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -977,19 +962,19 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1000,19 +985,19 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1023,19 +1008,19 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1046,19 +1031,19 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1069,19 +1054,19 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1092,19 +1077,19 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1115,19 +1100,19 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1138,19 +1123,19 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1164,16 +1149,16 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1187,16 +1172,16 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1213,7 +1198,7 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
@@ -1236,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -1262,7 +1247,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -1285,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -1311,7 +1296,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1334,7 +1319,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
